--- a/data/trans_bre/P2B_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Provincia-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,03; 21,28</t>
+          <t>3,15; 21,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 13,75</t>
+          <t>-5,13; 13,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 6,85</t>
+          <t>-3,35; 6,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,39; 105,06</t>
+          <t>11,13; 116,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 32,87</t>
+          <t>-9,94; 34,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 84,31</t>
+          <t>-24,95; 83,36</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 10,42</t>
+          <t>-0,73; 10,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 12,77</t>
+          <t>-1,97; 12,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 9,67</t>
+          <t>-2,31; 9,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 12,34</t>
+          <t>-0,52; 12,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 67,6</t>
+          <t>-3,48; 63,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 28,98</t>
+          <t>-3,83; 27,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 57,99</t>
+          <t>-11,17; 56,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 70,39</t>
+          <t>-2,22; 74,83</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,31; 19,85</t>
+          <t>4,82; 19,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 14,97</t>
+          <t>-2,75; 14,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 12,25</t>
+          <t>-2,44; 12,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 10,2</t>
+          <t>-2,17; 9,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,25; 134,63</t>
+          <t>21,4; 124,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 34,04</t>
+          <t>-5,26; 33,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 56,22</t>
+          <t>-8,66; 57,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 64,02</t>
+          <t>-10,24; 60,11</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 15,79</t>
+          <t>3,07; 15,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 8,91</t>
+          <t>-3,16; 9,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 14,71</t>
+          <t>-1,73; 14,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 5,22</t>
+          <t>-14,39; 3,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,75; 134,83</t>
+          <t>16,27; 138,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 16,45</t>
+          <t>-5,11; 16,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 40,11</t>
+          <t>-3,83; 41,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,82; 22,32</t>
+          <t>-39,79; 18,33</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 6,26</t>
+          <t>-13,29; 6,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 13,84</t>
+          <t>-8,1; 13,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 14,55</t>
+          <t>-4,27; 16,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 4,58</t>
+          <t>-14,46; 4,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-39,83; 30,59</t>
+          <t>-39,5; 27,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 29,33</t>
+          <t>-13,81; 28,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 27,59</t>
+          <t>-6,76; 29,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-51,12; 24,52</t>
+          <t>-50,85; 25,81</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 13,85</t>
+          <t>-0,91; 13,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 3,12</t>
+          <t>-14,61; 3,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 12,49</t>
+          <t>-7,34; 11,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 13,4</t>
+          <t>-1,67; 12,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 113,66</t>
+          <t>-6,46; 113,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,97; 6,82</t>
+          <t>-26,01; 8,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 32,11</t>
+          <t>-15,53; 32,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 56,2</t>
+          <t>-5,31; 51,68</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,25; 11,29</t>
+          <t>0,58; 11,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 5,65</t>
+          <t>-6,22; 6,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,4; 15,13</t>
+          <t>2,15; 14,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 46,89</t>
+          <t>0,27; 49,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,12; 67,25</t>
+          <t>2,55; 68,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,94; 12,77</t>
+          <t>-12,37; 14,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,19; 47,05</t>
+          <t>5,48; 44,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 476,55</t>
+          <t>2,13; 573,61</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 0,98</t>
+          <t>-9,63; 0,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 9,4</t>
+          <t>-2,45; 8,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 9,98</t>
+          <t>-0,76; 10,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,24; 13,48</t>
+          <t>1,52; 13,45</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-28,21; 3,74</t>
+          <t>-28,76; 3,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 19,1</t>
+          <t>-4,31; 17,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 17,21</t>
+          <t>-1,36; 17,93</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,42; 37,52</t>
+          <t>3,66; 36,58</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,75</t>
+          <t>2,08; 6,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 5,06</t>
+          <t>-0,35; 4,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,85; 8,05</t>
+          <t>2,61; 8,16</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,92; 15,91</t>
+          <t>2,89; 14,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,81; 32,82</t>
+          <t>8,95; 33,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 9,99</t>
+          <t>-0,61; 9,8</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,59; 20,23</t>
+          <t>6,1; 20,6</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,85; 67,17</t>
+          <t>11,44; 63,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2B_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,15; 21,89</t>
+          <t>1,64; 20,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 13,64</t>
+          <t>-4,77; 14,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,13; 116,1</t>
+          <t>5,33; 105,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 34,3</t>
+          <t>-9,35; 35,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 10,51</t>
+          <t>-0,96; 10,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 12,3</t>
+          <t>-1,3; 12,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 9,4</t>
+          <t>-2,29; 9,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 63,54</t>
+          <t>-4,71; 69,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 27,64</t>
+          <t>-2,55; 29,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 56,35</t>
+          <t>-10,69; 56,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,82; 19,44</t>
+          <t>4,94; 19,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 14,91</t>
+          <t>-2,81; 14,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 12,45</t>
+          <t>-2,27; 12,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,4; 124,95</t>
+          <t>20,08; 126,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 33,6</t>
+          <t>-5,23; 32,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 57,75</t>
+          <t>-7,1; 61,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 15,4</t>
+          <t>2,99; 15,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 9,21</t>
+          <t>-3,41; 9,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 14,99</t>
+          <t>-1,7; 15,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,27; 138,17</t>
+          <t>15,34; 133,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 16,68</t>
+          <t>-5,27; 16,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 41,74</t>
+          <t>-3,84; 44,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 6,02</t>
+          <t>-11,77; 6,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 13,07</t>
+          <t>-8,7; 12,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 16,0</t>
+          <t>-5,75; 14,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-39,5; 27,68</t>
+          <t>-37,24; 31,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 28,22</t>
+          <t>-14,15; 26,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 29,55</t>
+          <t>-8,69; 27,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 13,3</t>
+          <t>-1,34; 13,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 3,99</t>
+          <t>-14,14; 4,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 11,8</t>
+          <t>-7,35; 12,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 113,65</t>
+          <t>-8,0; 117,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,01; 8,42</t>
+          <t>-24,82; 9,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 32,22</t>
+          <t>-15,67; 36,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,58; 11,75</t>
+          <t>0,72; 11,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 6,46</t>
+          <t>-6,58; 5,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,15; 14,63</t>
+          <t>2,23; 14,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,55; 68,4</t>
+          <t>2,66; 62,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 14,41</t>
+          <t>-12,93; 12,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,48; 44,46</t>
+          <t>5,42; 47,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 0,95</t>
+          <t>-9,24; 1,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 8,82</t>
+          <t>-2,26; 9,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 10,53</t>
+          <t>-1,35; 10,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-28,76; 3,8</t>
+          <t>-27,85; 5,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 17,91</t>
+          <t>-4,23; 18,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 17,93</t>
+          <t>-1,92; 17,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,71</t>
+          <t>1,82; 6,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 4,9</t>
+          <t>-0,5; 5,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,61; 8,16</t>
+          <t>2,67; 8,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,95; 33,06</t>
+          <t>8,16; 32,82</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 9,8</t>
+          <t>-0,91; 10,19</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,1; 20,6</t>
+          <t>6,15; 20,53</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/P2B_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 20,64</t>
+          <t>3,03; 21,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 14,16</t>
+          <t>-4,8; 13,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 6,6</t>
+          <t>-3,24; 6,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,33; 105,92</t>
+          <t>8,39; 105,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 35,98</t>
+          <t>-9,89; 32,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-24,95; 83,36</t>
+          <t>-22,35; 84,31</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 10,87</t>
+          <t>-0,69; 10,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 12,92</t>
+          <t>-1,91; 12,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 9,31</t>
+          <t>-1,79; 9,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 12,88</t>
+          <t>-0,67; 12,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 69,8</t>
+          <t>-2,82; 67,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 29,62</t>
+          <t>-3,74; 28,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 56,76</t>
+          <t>-7,78; 57,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 74,83</t>
+          <t>-3,5; 70,39</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,94; 19,81</t>
+          <t>5,31; 19,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 14,37</t>
+          <t>-2,97; 14,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 12,57</t>
+          <t>-3,29; 12,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 9,62</t>
+          <t>-2,39; 10,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,08; 126,99</t>
+          <t>22,25; 134,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 32,28</t>
+          <t>-5,64; 34,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 61,39</t>
+          <t>-11,83; 56,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 60,11</t>
+          <t>-10,45; 64,02</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 15,19</t>
+          <t>3,12; 15,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 9,19</t>
+          <t>-3,23; 8,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 15,84</t>
+          <t>-1,26; 14,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 3,91</t>
+          <t>-11,78; 5,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,34; 133,69</t>
+          <t>16,75; 134,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 16,76</t>
+          <t>-5,19; 16,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 44,5</t>
+          <t>-3,16; 40,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,79; 18,33</t>
+          <t>-34,82; 22,32</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 6,29</t>
+          <t>-12,63; 6,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 12,66</t>
+          <t>-8,18; 13,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 14,77</t>
+          <t>-4,57; 14,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 4,74</t>
+          <t>-14,7; 4,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-37,24; 31,47</t>
+          <t>-39,83; 30,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 26,79</t>
+          <t>-13,81; 29,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 27,55</t>
+          <t>-7,25; 27,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-50,85; 25,81</t>
+          <t>-51,12; 24,52</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 13,73</t>
+          <t>-1,42; 13,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,14; 4,37</t>
+          <t>-15,05; 3,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 12,87</t>
+          <t>-8,17; 12,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 12,52</t>
+          <t>-1,13; 13,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 117,7</t>
+          <t>-8,67; 113,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,82; 9,01</t>
+          <t>-25,97; 6,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,67; 36,75</t>
+          <t>-16,94; 32,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 51,68</t>
+          <t>-4,17; 56,2</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,72; 11,36</t>
+          <t>0,25; 11,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 5,86</t>
+          <t>-7,25; 5,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,23; 14,99</t>
+          <t>2,4; 15,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 49,12</t>
+          <t>0,13; 46,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,66; 62,43</t>
+          <t>1,12; 67,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,93; 12,93</t>
+          <t>-13,94; 12,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,42; 47,43</t>
+          <t>6,19; 47,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,13; 573,61</t>
+          <t>0,48; 476,55</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 1,28</t>
+          <t>-9,19; 0,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 9,42</t>
+          <t>-2,42; 9,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 10,2</t>
+          <t>-0,69; 9,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,52; 13,45</t>
+          <t>2,24; 13,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,85; 5,51</t>
+          <t>-28,21; 3,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 18,92</t>
+          <t>-4,32; 19,1</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 17,89</t>
+          <t>-1,18; 17,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,66; 36,58</t>
+          <t>5,42; 37,52</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,82; 6,79</t>
+          <t>2,08; 6,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 5,1</t>
+          <t>-0,35; 5,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,67; 8,3</t>
+          <t>2,85; 8,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,89; 14,92</t>
+          <t>2,92; 15,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,16; 32,82</t>
+          <t>8,81; 32,82</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 10,19</t>
+          <t>-0,67; 9,99</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,15; 20,53</t>
+          <t>6,59; 20,23</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,44; 63,75</t>
+          <t>11,85; 67,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2B_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>24,11%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,47; 10,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 6,85</t>
+          <t>-2,53; 7,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,04; 18,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 84,31</t>
+          <t>-20,5; 98,39</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,25</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,55%</t>
+          <t>31,71%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 12,34</t>
+          <t>-0,47; 12,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 70,39</t>
+          <t>-2,2; 73,89</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,07%</t>
+          <t>20,29%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 10,2</t>
+          <t>-2,41; 10,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 64,02</t>
+          <t>-10,74; 64,08</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>-8,39</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-12,68%</t>
+          <t>-30,05%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 8,91</t>
+          <t>-2,9; 12,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 5,22</t>
+          <t>-19,76; 1,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 16,45</t>
+          <t>-4,48; 24,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,82; 22,32</t>
+          <t>-62,75; 3,47</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,19</t>
+          <t>-6,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-17,97%</t>
+          <t>-29,2%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 4,58</t>
+          <t>-19,07; 2,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-51,12; 24,52</t>
+          <t>-72,11; 11,41</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>19,91%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 13,4</t>
+          <t>-1,5; 13,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 56,2</t>
+          <t>-5,26; 55,01</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,16</t>
+          <t>27,79</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>145,35%</t>
+          <t>235,84%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 46,89</t>
+          <t>0,08; 61,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 476,55</t>
+          <t>-1,02; 641,01</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,87</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>19,28%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,24; 13,48</t>
+          <t>2,13; 13,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,42; 37,52</t>
+          <t>4,93; 37,01</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,37</t>
+          <t>7,98</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>34,87%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,92; 15,91</t>
+          <t>1,9; 22,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,85; 67,17</t>
+          <t>8,15; 102,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2B_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,03; 21,28</t>
+          <t>1,78; 20,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 10,12</t>
+          <t>-9,06; 8,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 13,75</t>
+          <t>-5,15; 13,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 7,1</t>
+          <t>-2,58; 7,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,39; 105,06</t>
+          <t>6,44; 108,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 18,5</t>
+          <t>-14,44; 16,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 32,87</t>
+          <t>-10,16; 31,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,5; 98,39</t>
+          <t>-20,2; 104,88</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 10,42</t>
+          <t>-0,8; 10,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 12,77</t>
+          <t>-2,34; 11,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 9,67</t>
+          <t>-1,74; 9,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 12,25</t>
+          <t>-0,18; 12,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 67,6</t>
+          <t>-4,28; 66,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 28,98</t>
+          <t>-4,37; 27,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 57,99</t>
+          <t>-8,5; 55,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 73,89</t>
+          <t>-0,5; 80,53</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,31; 19,85</t>
+          <t>4,76; 20,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 14,97</t>
+          <t>-2,41; 14,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 12,25</t>
+          <t>-2,84; 12,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 10,27</t>
+          <t>-2,56; 9,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,25; 134,63</t>
+          <t>20,36; 131,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 34,04</t>
+          <t>-4,41; 31,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 56,22</t>
+          <t>-8,79; 57,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 64,08</t>
+          <t>-11,08; 62,09</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 15,79</t>
+          <t>2,67; 15,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 12,86</t>
+          <t>-2,93; 12,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 14,71</t>
+          <t>-1,86; 15,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,76; 1,24</t>
+          <t>-20,22; 0,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,75; 134,83</t>
+          <t>16,3; 134,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 24,65</t>
+          <t>-4,56; 23,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 40,11</t>
+          <t>-4,07; 42,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-62,75; 3,47</t>
+          <t>-60,32; 0,94</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 6,26</t>
+          <t>-12,02; 6,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 13,84</t>
+          <t>-8,59; 12,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 14,55</t>
+          <t>-4,71; 14,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-19,07; 2,45</t>
+          <t>-18,8; 2,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-39,83; 30,59</t>
+          <t>-38,24; 33,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 29,33</t>
+          <t>-14,52; 26,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 27,59</t>
+          <t>-7,12; 28,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-72,11; 11,41</t>
+          <t>-66,61; 11,83</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 13,85</t>
+          <t>-0,58; 14,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 3,12</t>
+          <t>-13,81; 4,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 12,49</t>
+          <t>-7,17; 11,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 13,15</t>
+          <t>-1,73; 13,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 113,66</t>
+          <t>-4,58; 118,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,97; 6,82</t>
+          <t>-24,2; 8,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 32,11</t>
+          <t>-16,11; 31,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 55,01</t>
+          <t>-5,31; 58,68</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,25; 11,29</t>
+          <t>0,13; 11,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 5,65</t>
+          <t>-5,93; 6,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,4; 15,13</t>
+          <t>1,62; 14,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,08; 61,27</t>
+          <t>-0,16; 62,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,12; 67,25</t>
+          <t>0,35; 62,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,94; 12,77</t>
+          <t>-11,78; 14,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,19; 47,05</t>
+          <t>4,15; 44,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 641,01</t>
+          <t>-2,1; 698,86</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 0,98</t>
+          <t>-9,01; 1,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 9,4</t>
+          <t>-1,81; 9,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 9,98</t>
+          <t>-0,35; 11,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,13; 13,26</t>
+          <t>2,14; 13,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-28,21; 3,74</t>
+          <t>-27,82; 5,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 19,1</t>
+          <t>-3,31; 18,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 17,21</t>
+          <t>-0,54; 19,67</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,93; 37,01</t>
+          <t>4,81; 38,37</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,75</t>
+          <t>1,83; 6,7</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 5,06</t>
+          <t>-0,43; 4,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,85; 8,05</t>
+          <t>2,62; 7,92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,9; 22,75</t>
+          <t>2,01; 23,77</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,81; 32,82</t>
+          <t>8,33; 32,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 9,99</t>
+          <t>-0,81; 9,61</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,59; 20,23</t>
+          <t>6,1; 19,56</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,15; 102,08</t>
+          <t>8,39; 103,65</t>
         </is>
       </c>
     </row>
